--- a/data/hotels_by_city/Dallas/Dallas_shard_149.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="906">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>tootallsd</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>As background, this was day three of a cross-country move (20' Haul truck Atlanta to Palm Springs). Traveling in such a vehicle limits your hotel selection and limits your ability travel to things like restaurants. I was also experimenting with different hotel brands under the SPG/Marriott umbrella.Experienced really severe weather on arrival in the Metroplex.  The rain seemed more like a fire house than precipitation, so arriving at the Courtyard was a real pleasure.  This is an older Courtyard property but the public spaces and rooms have been refreshed to align with current corporate branding.  After arrival, we did a load of laundry and drank a couple of beers while hanging out in the public space.  Nice surprise, the laundry facility was free.For dinner we walked next door to Rio Mambo -- great.  We ate breakfast the next morning at the Courtyard.  The options were well presented and pretty tasty.  Our room was a solid comfortable bargain.  Mattress quality a little soft for my preference.  Indoor pool looked inviting but I didn't pack a swimsuit -- the hot tub would have been a nice way to warm up my bones.Departure time was just above freezing -- it was a difficult load of suitcases back into the U Haul.More</t>
   </si>
   <si>
+    <t>Marvin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r529744249-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Nice hotel situated in a popular part with lots of stores/restaurants nearby. Easy access to freeways. Parking lot very well lit and safe. Parked overnight with a car full of stuff and car was secure.More</t>
   </si>
   <si>
+    <t>CherylA96816</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r517222310-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>We stayed at the Courtyard Fort Worth West at Cityview a few weeks ago while we dropped our son off at college.  It was nice, clean and the staff was very friendly.  Our rooms were spacious for our children (i.e. 6 feet plus tall football players)!  We had more than enough towels, soap and shampoos!!!  The area is very convenient; so close to shops, malls, and restaurants.  It made visiting Texas great!  We'll defenitely stay here again.More</t>
   </si>
   <si>
+    <t>timlphilpot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r516044839-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>We recently stayed here with our adult children and had a great visit.  The hotel has recently been remodeled and looks like a new hotel inside with all new amenities . The staff was very accommodating and welcoming.  Defiantly a good value for the quality!!More</t>
   </si>
   <si>
+    <t>Konstantin E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r512358481-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Have been coming here for last few weeks to visit client's site - typical Courtyard with all that comes with it: gym, bar, bistro, pool. The hotel has just finished renovations so now looks and feels brand new. Very friendly and professional staff.More</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r511524675-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>We stumbled on this hotel while traveling back from VA. Needed to stop, and we like staying at Marriott properties. The room was great, the facilities were very nice. What made it stand out was the excellent customer service provided by the front desk and the bartender. They were extremely accommodating with any and all questions and/or requests. If all their staff is as great as these two, I highly recommend staying here passing through the DFW metroplex.More</t>
   </si>
   <si>
+    <t>koolD187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r510258176-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>If you are on a business visit to the area . This is a good place to stay and is your typical Marriott property. Well managed and the usual Bistro and all other things which you have come to expect of a CourtyardMore</t>
   </si>
   <si>
+    <t>Shirley D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r507130812-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>Wish we were in town longer to enjoy this hotel. Rooms were very nice, clean and fresh. We enjoyed relaxing in the courtyard and chatting with friends from our Baseball Team. Staff was very nice and surroundings were really nice as well. Like the location, with places to eat and gas up close by. Would have liked breakfast included, but understand this type of hotel caters to a different group of people. Seems more business like. Would stay here in the future for sure!More</t>
   </si>
   <si>
+    <t>Marsha E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r502327109-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>I stay at a lot of Courtyards.  For the most part, they are all the same. This one is finishing up its remodel and looks nice. Convenient location to interstate and some local restaurants.  Ate in the bistro one night and the food is decent. All in all, it is a nice hotel, clean with nice staff.  I would stay here again.  I was told my room was recently remodeled, but despite that fact, a couple of things bugged me- the electrical outlets by the bed were old and stretched out, so my charger plugs fell out.  Also, I don't think they changed out the mattresses, because mine needed some serious turning.More</t>
   </si>
   <si>
+    <t>Shamuuu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r482463479-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>We arrived at midnight and the check in staff was fresh and hospitable. Rarely do we receive such a greeting in any hotel. The hotel itself is beautiful and newly renovated. The room was phenomenal. Super comfy bed, quiet, and dark as pitch. We slept in and didn't even realize it. The courtyard was lovely with waterfalls, and a putting green. I would definitely stay here again! We've stayed at more expensive hotels that weren't this nice. More</t>
   </si>
   <si>
+    <t>Christine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r454364159-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>Hotel staff was extremely friendly and accommodating. The hotel and the room were clean, comfortable, and well maintained. I loved the shower and my room was spacious. I would definitely recommend this location and will stay again.More</t>
   </si>
   <si>
+    <t>psychocabbage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r444988243-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>Checked in for a two night stay and was warmly greeted by Sara(sp). Check in was quick and painless and the room was clean and well appointed.Things to note:Room has fridge but no freezerIf you get ice cream down at the shop by check-in, grab a spoon add there are no spoons in your room.Eating ice cream with the coffee stir straws is not ideal.Only caveats:If your suite had two tvs, the remote controls both, so ít will often turn both on due to reflection of signal.The 2nd night, the main bathroom light has decided to flicker. It's more off than on.More</t>
   </si>
   <si>
+    <t>CKCameron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r444926684-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,6 +522,9 @@
     <t>Very clean and well appointed!!! Bed super comfortable! Our only complaint was the location of the television. It was at an angle from the bed and hard to see from the right side of the bed.  We would definitely return to this hotel. More</t>
   </si>
   <si>
+    <t>britt s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r444314765-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>There to visit family, glad to have a comfortable place to come home to everynight. All of the staff that we dealth with were great. The term "Bar" is a little bit of a stretch but the room was a nice size and comfortable. The sitting area and lounge were great. The area was perfect because we could walk to many places from our room. Would stay again when I am in the area.More</t>
   </si>
   <si>
+    <t>petc11 .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r440230105-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>The hotel is located next to a major shopping mall with many major stores nearby!  There were many restaurants very close by and some were within easy walking distance.  This hotel is my choice when visiting relatives because of the convenience to all the shopping and dining choices.  The hotel has not updated its rooms with USB charging ports yet.  Also, breakfast is an extra charge, not like many hotels that have free breakfast.  Also, the hotel has indoor heated pool (approx. 90 degrees) and a hot tub that is not working due to maintenance issues.  Beds were comfortable with A/C unit next to the bed.  A/C cycles on and off all night and tended to wake me during each cycle.Hotel staff seemed friendly.More</t>
   </si>
   <si>
+    <t>Brian F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r436973652-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>Overall the room was nice.  A little odd to get to, Google maps sent me a weird looping drive over the express way on what looked like a one lane road meant for foot traffic but I got there so all's well that ends well I suppose. Had a nice restaurant next to it, rooms were clean, the service was good as I've come to expect at all Courtyards.  The rooms were overpriced, which I've come to expect at all Courtyards.  Got an upgrade to a King Size which is nice.  Fun Trivia fact: the hotel is right on the landing approach for the near by Air Force Base so you get to see lots of really neat and LOUD fighter jets ripping by during the evening.  I will say that they do stop during the night - I had none go over while I was asleep so not terribly annoying, more just unfortunate I'd say.  I'd stay again unless I could find a deal somewhere else, the proximity to my client's office is too good to pass up.More</t>
   </si>
   <si>
+    <t>GoChargers85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r425463151-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>We stayed for 2 nights in Oct 2016. The location was terrific.  The front desk staff was very friendly and check in went smoothly.  The room was clean, spacious and well laid out.  The fully stocked Keurig was a great touch!  We had no issues during our stay and would highly recommend this property.More</t>
   </si>
   <si>
+    <t>GypsyGitanoAtHeart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r420992100-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>This is my second stay here and I thought the staff was quite friendly this time.  (The only exception was a man who worked mostly in the backroom of their cafe/bistrot - he spoke only Spanish and used some really ugly words, I guess because he thought no one understood).   It's quiet, the rooms are nice, and the breakfast options are pretty decent (though I sure wish the booths to sit in didn't each have TV's blaring -- very hard to find peace and quiet in such a setting)More</t>
   </si>
   <si>
+    <t>katrisen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r420345941-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>This is the only place I stay when I have to travel TDY.. I love the area. The hotel staff is always pleasant and very helpful. I've only had 1 issue but that was months ago. The GM fixed it right away. So that lets me know she genuinely cares about her guests! This hotel is close to shopping and great food! Ill see you guys in end of November beginning of December... Thanks Again!More</t>
   </si>
   <si>
+    <t>katiey424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r412325789-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>We stayed for one night in Fort Worth to attend a special event. Check in was quick and easy, and we were recognized for being loyalty program members. The hotel was quiet even though it is situated near a highway. We had a view of the outdoor patio, fountains and putting green. The property is situated near a mall and plenty of restaurants. We were very pleased with the rate, the cleanliness of the entire property, and the friendly staff.More</t>
   </si>
   <si>
+    <t>Shannon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r410374298-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>We had a reservation, we were part of a large wedding party (50+ people) staying at this hotel. Somehow they lost some of our groups reservations. The three employees working the front desk then rudely telling us they were doing us a favor by looking for the missing reservation and gave us attitude, raising their voices unprovoked. We asked in our room reservation, (which was made many months prior to the wedding) to be on a top floor. Our room was on the ground floor and they told us we could not be moved, all this again said with attitude. The bottom floor room had windows that were on street level, noisy and not private.More</t>
   </si>
   <si>
+    <t>adventurer2011_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r404198972-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -717,6 +783,9 @@
     <t>Hotel staff and amenities were top notch.  The beds were far superior to any other hotels, very comfortable, on the soft side. So great I looked under the linens to see the brand....seems Marriott makes their own mattresses and they sell to the public. Who knew?  Only complaint is, the indoor pool was very warm. We had to soak in the hot tub to be able to feel cool in the pool. Convenient location off I-20. 24 hr Starbucks in the lobby, generic coffee for the Keurig in room.More</t>
   </si>
   <si>
+    <t>Doug78750</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r398218321-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>The staff were all friendly and welcoming.  Special shoutout to Abraham.   The facilities and rooms were nice, and the housecleaning staff were responsive and thorough.  Suggest a room on back side of hotel, away from I 20, and overlooking the patio area.More</t>
   </si>
   <si>
+    <t>Charlotte2010NC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r397444184-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>I stayed here for one night on business. It is close to a few restaurants you can walk to at an old strip mall. The room was decent. It was clean and everything worked well. It's also across the street from a number of stores and restaurants. It's time for them to get new towels as the ones I had were getting threadbare. There is free parking.More</t>
   </si>
   <si>
+    <t>RestlessCindi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r395027790-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -789,6 +864,9 @@
     <t>This is a typical,  clean Marriott property.  There is a Starbucks in the lobby but generic coffee in room.  I was driving a big pick up, spotted some U-Haul high cube type trucks in the back parking lot, parking is fine. Really simple area to come and go from,  near shopping so setting up my son's apartment was easy (if any move is easy).  Easy access to TCU area. I did hear traffic noise even though we had the AC fan on high all night. If traffic noise bothers you ask for an even numbered room so you don't face the highway.  More</t>
   </si>
   <si>
+    <t>BillM551</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r389464905-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -813,12 +891,18 @@
     <t>Marriott Courtyard made the correct decisions in updating older properties to bring them to par with new hotels.  The Courtyard on Cityview offered the convenience of the lobby café.  Colors are attractive.  The layout of the cafe with partioned areas makes lounging in this large room more comfortable.  Check in completed without a hitch.  I received a room on the top floor as I requested when I made the reservation.  Four issues, though.  The room with the indoor pool needs better ventilation.  The chemical smell was strong to tolerate.  On Saturday morning, the café did not open until 7:00.  Coffee was not even available.  The bathroom was dimly lit and should have more light.  Finally, the gentleman at the desk in the lobby did not look up when I entered the room; he appeared to be busy on his cell phone.However, Marriott Courtyard will be first on my list when checking accommodations.More</t>
   </si>
   <si>
+    <t>szquintana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r384487427-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>384487427</t>
   </si>
   <si>
+    <t>Mr48983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r380407367-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -846,6 +930,9 @@
     <t>My vehicle was broken in to at this property. I understand its an inherent risk while traveling and I've seen it multiple time at various properties. Not much you can do to stop it other than to make sure you have all your belongings removed form the vehicle. I parked my vehicle intentionally in an area where there were security cameras present, well lit, and what I assumed high risk for a thief. My vehicle was broken in to overnight and when the police arrived to take a report the front desk they let us know the cameras weren't functioning and were very nonchalant about the whole thing. Highly frustrating - At minimum be upfront with the guests on arrival on security issues.More</t>
   </si>
   <si>
+    <t>Trey Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r380276676-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +954,9 @@
     <t>Stayed here while on a trip to watch the Texas Rangers ,the hotel was very clean and comfortable,Great location less than 30 minutes to the ballpark.Lots of restaurants close by.Also easy to get to.We will definitely try to stay here again.The back courtyard was also very relaxing.More</t>
   </si>
   <si>
+    <t>swe1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r375876471-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -897,6 +987,9 @@
     <t>We stayed here for the State PSIA competition, and it was absolutely lovely.  The rooms are spacious, nice, and CLEAN.  The outdoor patio area is amazing.  We were with a big school group, and spent two fantastic evenings visiting while the kids utilized the pool and putting green.  Their crescent breakfast sandwich is to die for! Thank you for a terrific weekend!More</t>
   </si>
   <si>
+    <t>smlkennedy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r362756149-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1011,9 @@
     <t>This is a great location. It is close to all that a family needs to be comfortable on a road trip. The beds are comfortable. The rooms are spacious. The staff is professional &amp; helpful. The pool &amp; spa is small but clean. My kids loved it. There is a small but nice restaurant. There is plenty of seating in the lounge area. My kids liked the outdoor space with the little putting green. We would stay here again!More</t>
   </si>
   <si>
+    <t>rewardtraveler1927</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r344634014-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1041,9 @@
     <t>The hotel was very comfortable. The staff were very helpful. The only problem was we could not get the room cooled to our comfort level. The bed was very comfortable with good linens. We would definitely stay at this hotel again when we are in the area. More</t>
   </si>
   <si>
+    <t>Mary Ann D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r336056698-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1068,9 @@
     <t>Rough as sandpaper toilet tissue, 4 bath towels-3 hand towels- only 2 wash cloths--all small, thin &amp; rough. Bath soap very harsh. Shower caulk moldy and peeling, and bath non-skid pad was not secure. Television cannot be rotated to view from bed.  Love seat sofa very hard and stiff (not comfortable); in-room refrigerator did not work.  Tap water very chlorinated, no complimentary water for drinking.  Elevator door malfunctioned often. Restaurant menu items were not available.  Simple a downgraded, economized version of a Marriott facility.  We've stayed at Marriott facilities for over 25 years and always been very comfortable at others; however, we will NOT be returning to this facility.More</t>
   </si>
   <si>
+    <t>Sharley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r331014230-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1092,9 @@
     <t>First off the staff here is amazing. From last night checking in quickly I think the kids name was Tommy to chat with sweet lady and the manager at coffee shop. I left tooth paste at home and the guy at reception desk great too. The price is great for the fact that you get a spacious clean room, an indoor pool with hot tub, tv has hook ups for your own dvd player or game system, coffee hop and bar. I guess I'm weird I love reviewing hotels lol. No complaints on this one. Thanks for a great stay!More</t>
   </si>
   <si>
+    <t>PHILIP W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r330672556-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1113,9 @@
     <t>This 2 night business stay was pleasant.  The room was spacious....the bathroom was clean.  The bed was completely amazing...something like the memory foam type beds...not to hard...not to soft.  The rooms comes set up with a mini Keurig with 2 reg/1 decaf Starbuck k-cups.  I usually like to stay somewhere that has a free breakfast offering, which this on did not, but still a nice, clean hotel.  Good job folks. More</t>
   </si>
   <si>
+    <t>Eleanor  S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r326715966-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1137,9 @@
     <t>I have stayed at this hotel several times.  The staff is always friendly and efficient. Rooms are comfortable  and have been updated!!  The rooms are equipped with microwaves, coffee, and refrigerators.  Free internet service is great and beds are clean and comfortable.More</t>
   </si>
   <si>
+    <t>Bruce J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r324690613-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1167,9 @@
     <t>Not a lot of negative other than there is no lobby coffee. In this day and age not offering lobby coffee is the exception. Given I have to buy breakfast here and it is very similar to the Hampton Inn across the highway in quality. Coffee should be free!!More</t>
   </si>
   <si>
+    <t>Tracey F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r320386899-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1188,9 @@
     <t>This trip was a Saturday afternoon drive to Fort Worth for a morning meeting on Sunday.  Since it was an spontaneous event, I didn't make hotel reservations. Bad move on my part,  Fort Worth is home to TCU and it's football season! I found myself stranded in the city view area with no place to stay.   I called this hotel and they had 3 rooms and I was sent to reservations to formalize.   Reservations stated that there were no rooms and left me on hold for 15 minutes and then returned to tell me that while I was on hold all 3 rooms had been taken.  I was furious about how the matter had been handled.  The 800 reservation desk was totally unsympathetic.  I admit I was in the throes of an absolute fit when my only option was a motel that I was not comfortable staying out when I decided to call back to the front desk.  That was when Ben, the brilliant front desk (manager? if not, should be) answered the phone.  I proceeded to explain my situation in a rather hysterical manner.  He stayed calm, assessed my situation, stated that he could not have me stranded (I'm a total stranger at this point) took my name and number and wanted to see if he could get a vacated room cleaned and ready for me.  He called me back in less than 5 minutes and told me to...This trip was a Saturday afternoon drive to Fort Worth for a morning meeting on Sunday.  Since it was an spontaneous event, I didn't make hotel reservations. Bad move on my part,  Fort Worth is home to TCU and it's football season! I found myself stranded in the city view area with no place to stay.   I called this hotel and they had 3 rooms and I was sent to reservations to formalize.   Reservations stated that there were no rooms and left me on hold for 15 minutes and then returned to tell me that while I was on hold all 3 rooms had been taken.  I was furious about how the matter had been handled.  The 800 reservation desk was totally unsympathetic.  I admit I was in the throes of an absolute fit when my only option was a motel that I was not comfortable staying out when I decided to call back to the front desk.  That was when Ben, the brilliant front desk (manager? if not, should be) answered the phone.  I proceeded to explain my situation in a rather hysterical manner.  He stayed calm, assessed my situation, stated that he could not have me stranded (I'm a total stranger at this point) took my name and number and wanted to see if he could get a vacated room cleaned and ready for me.  He called me back in less than 5 minutes and told me to come on, he could get me in a room. The moral of this review is more about an employee of the hotel as opposed to a hotel (which was very nice).  Courtyard has an excellent employee in this man.  I am very difficult person to deal with if I feel like I have been deceived.  He was able to totally neutralize the situation and I am impressed enough to be up to 1590 characters at this second to praise his work ethics.  Terrible service through the reservations phone route but EXCELLENT SERVICE FROM THE FRONT DESK!  Dear Courtyard:  don't lose this employee!!More</t>
   </si>
   <si>
+    <t>OutdoorLover4Life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r318546312-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1209,9 @@
     <t>I didn't think the hotel looked like much from the outside but was pleasantly surprised when I entered the lobby.  I appreciated the warm greeting from the staff.  The lobby was tastefully decorated.  If you are a light sleeper, keep in mind the front of the hotel faces a major highway.  My room faced the highway and was next to the elevator.  Although I heard traffic, I never heard noise from the elevators or the ice room next door.  My room was very clean and extremely functional for a business traveler.  The beds... not sure how Marriott does it, but their beds are simply the best.One evening I enjoyed a drink on the back patio.  They had water flowing everywhere and the fire pit was on... It was very relaxing and peaceful.  Wish the little sofa out there had cushions on it, but it was still nice.  My takeaways from this place was the cleanliness and the pleasantness of the staff -- all I encountered were simply wonderful.  I have travelled to Ft. Worth in the past to visit the Air Force plant and have stayed in downtown.  I now prefer this hotel since it was very easy to get back on the highway AND there were a lot of restaurants nearby.  A nice neighborhood.  Definitely recommend this place.More</t>
   </si>
   <si>
+    <t>bb0925</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r316632243-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1236,9 @@
     <t>We had a group of 7 girls that stayed at the FW Cityview (2 rooms).  The front desk employees Terry &amp; Ben we awesome!!!  They were eager to help with any questions we had.  The rooms were nice and the beds were very comfortable.  There was a firepit out back in the courtyard that was perfect for sitting around in the evening have a few cocktailsMore</t>
   </si>
   <si>
+    <t>casinogal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r316452362-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1257,9 @@
     <t>Was in town for a wedding and this was the bride's choice for hotel. After 3 calls we were able to check in 1 hour early so we could get ready for the wedding. Was really surprised that they had nothing open in the afternoon for food service; we had to go to Subway. Room was very comfortable and met our needs. Drive to DFW airport the next morning was a painless 35-45 minute drive during rush hour.More</t>
   </si>
   <si>
+    <t>MarkandBelinda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r303877112-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1278,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>dhblawyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r292637552-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1299,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Matt R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r292443176-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1317,9 @@
     <t xml:space="preserve">Check in was a breeze.  Hotel is clean and rooms are large with modern decor.  Nice bar area off the lobby.  Although distant our room did have a city view.  Bed is super comfy and bathroom has a large shower with sit in bench.  Great for the youngsters.  Towels and lines are bright white and smell fresh.  </t>
   </si>
   <si>
+    <t>Jesse G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r290251631-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1344,9 @@
     <t>Normally I stay at the Hyatt but it was booked so I tried this Marriott out.. It had a great rate. But when I booked online I had the option to pay on line or at the hotel.  When I paid at the hotel it was $50 more then the online reservation had stated.  I was told it is for incidentals, that fine but I like to be told when I am going to be charged an extra $50 bucks.  Upon arrival the hotel smells kind of old.  As soon as I walk into the room there is a huge cockroach in the bathroom.. It's smashed body still lays on the bathroom floor as we speak.  The cleaning was sub par.  Left trash out and a wet rag from the bathroom is now laying in the middle of the doorway floor.  The outlets by the bed are so loose I can't plug my phone charger in without it just falling out... The drinks in the lobby are way overpriced $11 for a Jameson and "Pepsi" as I was rudely corrected.  I saw the Pepsi I was gruffly informed about but I didn't seem to see it taste the Jameson in my $11 drink.  I took that drink to the courtyard that is really quite nice.  But when I inquired on the operation of the fire pit and outdoor TV I was told it wasn't working but get the sneaking suspicion...Normally I stay at the Hyatt but it was booked so I tried this Marriott out.. It had a great rate. But when I booked online I had the option to pay on line or at the hotel.  When I paid at the hotel it was $50 more then the online reservation had stated.  I was told it is for incidentals, that fine but I like to be told when I am going to be charged an extra $50 bucks.  Upon arrival the hotel smells kind of old.  As soon as I walk into the room there is a huge cockroach in the bathroom.. It's smashed body still lays on the bathroom floor as we speak.  The cleaning was sub par.  Left trash out and a wet rag from the bathroom is now laying in the middle of the doorway floor.  The outlets by the bed are so loose I can't plug my phone charger in without it just falling out... The drinks in the lobby are way overpriced $11 for a Jameson and "Pepsi" as I was rudely corrected.  I saw the Pepsi I was gruffly informed about but I didn't seem to see it taste the Jameson in my $11 drink.  I took that drink to the courtyard that is really quite nice.  But when I inquired on the operation of the fire pit and outdoor TV I was told it wasn't working but get the sneaking suspicion the kid just did want to mess w it.  On the upside the AC kept up well, the bed is comfortable and the Internet is fast (about 30 down and 15 up) More</t>
   </si>
   <si>
+    <t>AgmomTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r286980377-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1362,9 @@
     <t>Wonderful overnight stay.  The hotel was excellent.  Large fully appointed room with very comfortable bed.  Staff was friendly, and we were allowed to check in before the time I had chosen on the mobile check in.  Desk, sofa and chair provided a space to relax and continue working.  Keurig coffee pot in the room  and Starbucks in the restaurant for morning coffee. Nice restaurant choice near by.  Would definitely stay here again.</t>
   </si>
   <si>
+    <t>Ron C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r286350650-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1386,9 @@
     <t>Sometimes I really dislike some of the hotels I have to stay in when I travel but this Courtyard is one of the best properties I've seen in quite a long time.  It's a beautiful, well maintained hotel with outstanding customer service.  The rooms are nicely appointed, quiet and comfortable.  The internet is fast and reliable.  There's a nice garden in the back of the property complete with a putting green.  The hotel is located in the southwest area of Ft. Worth and is surrounded by plenty of restaurants to choose from.  There is no free breakfast and food items cost about the same as you'd see in an airport food court.  The next time I'm in the area I'll definitely stay at this Courtyard.More</t>
   </si>
   <si>
+    <t>Stephen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r284908201-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1404,9 @@
     <t>Great Courtyard property in Fort Worth.  Generous sized corner room/suite with separate living room and bedroom.  Nice kitchenette area with mini fridge and microwave.  Not a big fan of the indoor pool in climates that can support an outdoor pool, but if that's my only comment, then we are good.  Will definitely stay here again on my next trip to the area.  Well done!</t>
   </si>
   <si>
+    <t>dragonlady629</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r273324051-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1434,9 @@
     <t>I don't think I've ever been so impressed with a hotel. It was large, clean, new, beautifully appointed, wide stair cases, microwave, refrigerator, great front desk, EXCELLENT price, and FANTASTIC internet access. The only thing that I could see that could be improved would be the lighting. We couldn't put our makeup on in the bathroom it was so dark. We had to go to the window to get enough light. They need makeup mirrors in the bathroom. Fantastic location with lots of restaurants and shopping within a couple of miles.More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r272072848-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1455,9 @@
     <t>We had a rough start, no fault of the hotel.  We checked in and headed to our room on the second floor only to be greeted by the smell of cigarette smoke as the doors to the elevator opened.  (A$250 fine for that guy!) We were kept awake into the wee hours of the morning by the person staying in the room above us ( they walked with a VERY heavy foot...sounded like they were doing jumping jacks!) and also by the light that kept flashing on the smoke detector.....we are talking flashing light like on a runway.  We asked to be moved the next morning and found out the hotel was booked for the next night but they moved us to a room on the fourth floor and it was much better!  The manager went out of her way to accommodate us! The negatives of this hotel were flashing light on the smoke detector and the layout of the TV was such that it wasn't the best view if you were laying in bed.  The location was great!  Enough hot water to fill the tub. The restaurant next door has GREAT sopapillas!  Easy walking distance to restaurants and shopping, the staff are so friendly and the view from the rooms facing the front of the hotel were a beautiful skyline of downtown Fort Worth.  More</t>
   </si>
   <si>
+    <t>Elaine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r243391654-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1482,9 @@
     <t>I only stayed one night, but I will definitely plan to stay here again.  Property seems very new.  My room seemed like it had barely been used.  The carpet and paint were strikingly crisp.  The set-up was more modern than other courtyards I have stayed in.  The staff was quite friendly and helpful.  When I left something at the front desk at checkin, someone called immediately to let me know and he ran it up right away.  When I was planning out certain things that I needed to do, other front desk staff volunteered more economical options.  The lobby is also set up to be very social and open.  I did not play miniature golf, but I saw several kids returning equipment who looked like they had had a wonderful time.More</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r242905601-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1509,9 @@
     <t>Rooms were clean and nice. Very modern looking and sleek. We only had 1 issue - our room was on the 2nd floor, RIGHT above a conference room that had been reserved for a party or celebration of some sort. After a few hours of loud music keeping us up, we had to call reception to change rooms. More</t>
   </si>
   <si>
+    <t>scottishtraveller71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r238652682-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1530,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>MishelleL1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r238304927-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1551,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Tom W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r232920781-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1599,9 @@
     <t>We have stayed at this establishment numerous times since last year and always loved it.  So much so we stayed here and drove to Grand Prairie for concerts rather than stay closer to the venue.  The rooms are still well appointed, we've never had an issue with the rooms at all.  The indoor pool and whirlpool are very nice.  The outdoor courtyard was very relaxing and we enjoyed the mini putting green.  The former staff were very respectful, always greeting us.  Our last stay though was a complete turnaround.  They do have a bar, if you can catch it open that is.  Our usual bartender was not there.  This one refused to serve us as he said he had to prep come back at 5, my husband went back at 5 and he said he wasn't done yet and refused.  We reached the conclusion that despite all his bustling around he didn't care if the hotel made money.  As to their restaurant part of the hotel, they use a fryer, cooktop and microwave, whoever is bar tending also has to leave the bar.  The individual who attended the party here was not aware that was catered in, as your choices here are wraps, soups, flatbread pizza.  Having said that there are numerous great places to eat within walking distance.  After we arrived back from the concert my husband went inside at 10 till midnight to purchase a beer from their...We have stayed at this establishment numerous times since last year and always loved it.  So much so we stayed here and drove to Grand Prairie for concerts rather than stay closer to the venue.  The rooms are still well appointed, we've never had an issue with the rooms at all.  The indoor pool and whirlpool are very nice.  The outdoor courtyard was very relaxing and we enjoyed the mini putting green.  The former staff were very respectful, always greeting us.  Our last stay though was a complete turnaround.  They do have a bar, if you can catch it open that is.  Our usual bartender was not there.  This one refused to serve us as he said he had to prep come back at 5, my husband went back at 5 and he said he wasn't done yet and refused.  We reached the conclusion that despite all his bustling around he didn't care if the hotel made money.  As to their restaurant part of the hotel, they use a fryer, cooktop and microwave, whoever is bar tending also has to leave the bar.  The individual who attended the party here was not aware that was catered in, as your choices here are wraps, soups, flatbread pizza.  Having said that there are numerous great places to eat within walking distance.  After we arrived back from the concert my husband went inside at 10 till midnight to purchase a beer from their little store, their new night manager held up his watch and said "put it back, I won't sell after midnight, my husband held up his cell and said your watch is wrong, he then proceeded to argue with him.  The next morning we let the desk clerk know and she said this was unacceptable and she would have the Manager contact us.  We never heard anything from anyone.  We also watched the clerk pretend type our complaint in without actually hitting the keys, at least while we were present.  Bottom line we cancelled all of our upcoming reservations but had issues been addressed we wouldn't have.  Hopefully by now Management has seen these issues for themselves, ps you might let your new night manager also know that wherever he goes to for such long time periods leaves the lobby empty and my husband went in several times before midnight to buy a beer out of the case and no one was there and he could have walked out with stolen beer at numerous points, how sad he was punished abpnd turned down at ten till midnight for showing integrity.More</t>
   </si>
   <si>
+    <t>mongoose1020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r210775772-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1626,9 @@
     <t>Attended a party at this fine establishment and it was a rousing success! The food was superb, desserts were off the chart delicious and everything else on the list was superb. I would go so far as to say this place has  Five Star food with the staff matching the standard.If you can, go there !More</t>
   </si>
   <si>
+    <t>H L S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r207557738-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1656,9 @@
     <t>This is a newer style Courtyard with friendly, efficient staff members.  My role takes me to a lot of hotels all over the world, but when I come to Fort Worth I always stay at this place.  It is clean, people are nice, and it is a convenient location for me.  The room is always well repaired with everything working, the beds are comfortable, and and housekeeping staff is always ready.  Besides, an added bonus is their little kitchen which I enjoy after skipping meals during the day due to work.Great value for the money and great for a business stay.More</t>
   </si>
   <si>
+    <t>trav_den</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r201333619-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1686,9 @@
     <t>1) The fridge in the room didn't work.2) Fan for AC didn't work through the thermostat. I had to manually turn it on to high mode to get any AC.3) The AC points directly at the bed so it blows directly in your face the entire night.More</t>
   </si>
   <si>
+    <t>tkamin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r201000034-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1740,9 @@
     <t>We were so pleased with the cleanliness of the room, bathroom, lobby area and outside of the property.  There is a huge lobby where you can relax and look out at the fountains in the courtyard (it was cold when we were there!)  Lots of comfortable seats in the lobby.  Huge bathroom which is a bonus when traveling with others.  The beds were super comfortable.  I have to give a shout out to the night auditor, Dan, who went far beyond good customer service when he stayed on the phone with me when I was lost and frustrated late at night and directed me right to the front door of the hotel.  I hope the manager told him how much I appreciated his kindness.  Coffee service in room is superior to other properties with the single-serve cups of coffee and they offer Starbucks in the lobby,  There is an I-Hop directly across the road along with lots of restaurants and stores nearby.More</t>
   </si>
   <si>
+    <t>Crystalrod21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r186529801-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1767,9 @@
     <t>I was very disappointed with the customer service I received from this hotel following my stay. My visit to this hotel was perfect until I called back and spoke with the front desk regarding a concern I had with a charge on my account. I was told that it was "not her problem" and transferred to the manager's voicemail when I asked to speak to someone else. While placing me on hold she was talking about me and laughing to another person. When I called back the employee kept direct transferring me to the manager's voicemail When I called from a different number she finally answered and I expressed my dissatisfaction and told her I would call back on Monday. When I called back Monday the manager was even LESS helpful and asked me what I wanted him to do about it. This exemplification of poor customer service is exactly why I got treated so badly. I hope this does not happen to any other guests. This incident is unfortunate as my actual stay at the hotel was quite pleasant.More</t>
   </si>
   <si>
+    <t>Jurody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r183524703-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1794,9 @@
     <t>Stayed here to attend a TCU football game.  The location was very convenient to restaurants, shopping and TCU.  I cannot say enough about the staff.  They were so friendly and went out of their way to make our stay a good one.   This is a beautiful hotel with clean, comfortable rooms.      If you are accustomed to complimentary breakfast, free coffee, etc., do not expect it at a Courtyard.  However, the restaurant offered a reasonable menu. We enjoyed the comfortable lobby and restaurant to gather with other family staying here.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>TripTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r181032076-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1824,9 @@
     <t>I must start off by admitting that I'm a huge fan of the Courtyard style concept of the Marriott flag. I find them pleasant, reasonable and often new and inviting. This particular Courtyard reinforced my previous experiences with Courtyard properties. Located off of I-20 in southwest Fort Worth, this Courtyard seemed very new with an attractive lobby area that flowed out into their "bistro" and public sitting areas. We reserved a suite and it was expansive with a separate living room, kitchen area and two TVs. in room coffee service was provided along with an under the counter refrigerator. Free WiFi is always appreciated.The bathroom was contemporary although fairly pedestrian. As we stayed for only one night, we did not get to experience all the amenities of this property, but it sure did seem like a nice place to stay if one had an extended out of town lodging need in Fort Worth.The property was also conveniently located walking distance to an adjacent shopping center which had decent restaurant and nightlife venues.More</t>
   </si>
   <si>
+    <t>Msknights</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r181006508-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1845,9 @@
     <t>When I am given a choice, I stay at Courtyards.  This hotel left a bit to be desired.  The locations wasn't great.  It is on a one-way street so getting to and from can be a pain.  The renovations have been completed but, it still feels a bit old and doesn't smell quite right.More</t>
   </si>
   <si>
+    <t>SGCAVER12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r178149732-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1678,6 +1870,9 @@
   </si>
   <si>
     <t>Really nice rooms, well appointed. Lots of dining options to choose from around the hotel. Very comfy beds &amp; big tv. Nice lobby where you can sit &amp; grab a bite or coffee. Free parking &amp; wifi worked well. More</t>
+  </si>
+  <si>
+    <t>Scot_in_NL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r175086852-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
@@ -1706,6 +1901,9 @@
 The hotel is surrounded by other similar style hotels, restaurants and a massive connection of shops including a super target. Hotel itself is quiet, we were facing the road but didn't hear any cars. We could hear kids running down the corridors  but that stopped at a reasonable hour....We were on a week long Texas road trip. I'd picked this hotel as it was south of Fort Worth near the road south to San Antonio. After spending the day around Fort Worth we got to the hotel around 5. Reception were so friendly &amp; amazed when we said my parents had come from Australia. As I'm a rewards member they have a special on where you roll dice &amp; got points, something from bar or something from store. When we were checking in we were given option of 3rd or 4th floor. We said we were happy with 3rd however as soon as we opened the door the room smelt like a heavy smoker had just stayed in it. We are all non smokers &amp; knew we couldn't stay in the room. So I went downstairs to ask for 4th floor room.  They were so apologetic &amp; changed room instantly. Our room on 4th floor didn't smell &amp; they called 5mins later to check this room was good. We got the junior suite with queen &amp; sofa bed. It's massive &amp; with 3 adults didn't feel cramped at all. The hotel is surrounded by other similar style hotels, restaurants and a massive connection of shops including a super target. Hotel itself is quiet, we were facing the road but didn't hear any cars. We could hear kids running down the corridors  but that stopped at a reasonable hour. One downside, i stayed on the sofa bed &amp; woke up with stiff back because of the bar across the middle of the bed. They could maybe offer a mattress pad to put on the sofa bed mattress to counteract the bar!Overall it's a great, clean hotel you'd expect from marriott chain for a good price. More</t>
   </si>
   <si>
+    <t>Olineman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r170244446-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1733,6 +1931,9 @@
     <t>Stayed here on a business trip and found it to be a clean and quiet hotel.The beds were very comfortable and the AC worked like a champ.I did not have much interaction with the staff other than the front desk which was pleasant and helpful.  Other than that I did have coffee from the café in the morning and was greeted promptly and politely by the young man working there.  I had come by several minutes after they closed but he filled my cup anyway without hesitation.My wife traveled with me and we enjoyed some nice quite conversation in the courtyard in the evenings as well.  We did not experience any of the annoyances that a few other reviewers have written about.The workout room, although small was more than adequate and very clean as well.  Towels and water were stocked fully and all the equipment was in working order.I would have no problem staying here again the next time I have business in Fort Worth.More</t>
   </si>
   <si>
+    <t>jasecl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r169934588-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1757,6 +1958,9 @@
     <t>In enjoyed my stay at this hotel - I've stayed in a few of the hotels in this locality and I think this is probably the nicest.  Everything was good - just as you would hope in this kind of hotel.The bedroom was very good - very spacious with a good work area and a very comfortable bed.  The bathroom was excellent - a great shower.  Everything was very clean and modern.The breakfast service was fine - a good selection of things to choose from. All of the staff that I spoke to were very friendly and helpful.More</t>
   </si>
   <si>
+    <t>Wendi L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r168617205-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1781,6 +1985,9 @@
     <t>When you first walk into this hotel, the first thing you'll notice is the smell of CLEANLINESS! It was so very refreshing to the nose and to the eyes. I thought it was brand new, but we found out that the hotel is actually 4 yrs old. Also, we paid less per night for this hotel in comparison to the many other stinky and unpleasant places we've been this summer..We've been traveling quite a bit for baseball and I must say that this is my favorite hotel of the summer. Terri Waggoner, the guest services representative, was professional, very friendly, welcoming, down to earth and such a pleasure to deal with. Being the critical person that I am, I thought that that would be the end of the positive experience but I was wrong. Our room was very CLEAN (yaaaayyy!!!), spacious, the a/c worked GREAT for my two polar bears, and the beds/pillows were surprisingly very comfortable! This rarely ever happens for me so I was actually shocked and grateful. I suffer with fibromyalgia so this was a HUGE plus in my book. For all of you traveling baseball parents, there is only one washer and dryer but it's F-R-E-E to use which was the first time we've ever seen this. That was another small blessing. Overall, the hotel staff were all sweet and hard-working and the hotel is very well kept. There are plenty of shopping and eating places...When you first walk into this hotel, the first thing you'll notice is the smell of CLEANLINESS! It was so very refreshing to the nose and to the eyes. I thought it was brand new, but we found out that the hotel is actually 4 yrs old. Also, we paid less per night for this hotel in comparison to the many other stinky and unpleasant places we've been this summer..We've been traveling quite a bit for baseball and I must say that this is my favorite hotel of the summer. Terri Waggoner, the guest services representative, was professional, very friendly, welcoming, down to earth and such a pleasure to deal with. Being the critical person that I am, I thought that that would be the end of the positive experience but I was wrong. Our room was very CLEAN (yaaaayyy!!!), spacious, the a/c worked GREAT for my two polar bears, and the beds/pillows were surprisingly very comfortable! This rarely ever happens for me so I was actually shocked and grateful. I suffer with fibromyalgia so this was a HUGE plus in my book. For all of you traveling baseball parents, there is only one washer and dryer but it's F-R-E-E to use which was the first time we've ever seen this. That was another small blessing. Overall, the hotel staff were all sweet and hard-working and the hotel is very well kept. There are plenty of shopping and eating places very close by and some are even in walking distance. The location is great! The only slightly negative thing I have to note is that if there is an early riser in your group and he/she tries to "sneak" out without disturbing the others, the door makes a pretty loud noise b/c it automatically locks it with a dead bolt and there is no way of controlling/preventing the noise from the outside handle. If you sleep hard then you have no worries at all. (I can't critique the pool b/c we didn't have time to check it out.)More</t>
   </si>
   <si>
+    <t>1Big_Tex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r166569875-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1826,6 +2033,9 @@
     <t>this hotel is better than any down town hotels. I got an awesome price on Priceline! awesome pool, patio has numerous fountains, fire pit, flat screen tv, 5 putting green.  very nice ambience!!!!!! I will stay here everytime I come to Fort Worth.  near lots of shopping, food and fun!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>David T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r166352402-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1845,6 +2055,9 @@
   </si>
   <si>
     <t>Although well appointed and nicely decorated, the facility was not as advertised on the Internet. The pictures indicated a large leisure area with a nice putting green. It was enough for me to change plans to and stay here. Turns out to be a very small recreation area with not much to offer. TV outside was interesting but not very practical. Although the service was friendly! It took a half an hour to check in. Bistro was nice and the service friendly. For the price in the area, I wish I would have stayed with my original plan....Hyatt Place or Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>Adam W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r166181831-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
@@ -1867,6 +2080,9 @@
 The main issue I had was the person in the room next to me must have been deaf because their television was on until 2AM and kept me from sleeping well the first couple of nights.  Switched rooms and found out that the second room I got directly above the front entrance was about 5 feet longer than the first one.  The pictures I attached are from the second room-in the first room the sofabed and chair were crammed right next to each other which illustrates the size difference.  The portion of the building above the entrance sticks out a little bit and i'm assuming that all rooms in the protruding areas are larger.  Second issue with the first room is the air conditioner was next to the head area of the bed and blowing directly in my face all night while the second rooms air conditioner was located between the bed and the dresser and a lot more comfortable.  Third issue is the plugs in the light fixtures next to the bed do not work with two pronged plugs they are not sized correctly or something and you...Stayed here for business and overall was satisfied.  Room was clean, bed was comfortable, free breakfast was good (included in corporate rate), and staff was friendly.  The location is great because you can exit the freeway from the East and cut through the Academy parking lot avoiding Bryant Irvin Road completely. The main issue I had was the person in the room next to me must have been deaf because their television was on until 2AM and kept me from sleeping well the first couple of nights.  Switched rooms and found out that the second room I got directly above the front entrance was about 5 feet longer than the first one.  The pictures I attached are from the second room-in the first room the sofabed and chair were crammed right next to each other which illustrates the size difference.  The portion of the building above the entrance sticks out a little bit and i'm assuming that all rooms in the protruding areas are larger.  Second issue with the first room is the air conditioner was next to the head area of the bed and blowing directly in my face all night while the second rooms air conditioner was located between the bed and the dresser and a lot more comfortable.  Third issue is the plugs in the light fixtures next to the bed do not work with two pronged plugs they are not sized correctly or something and you have to move the nightstands to access normal plugs in the wall.  A huge plus to this hotel is they have guest passes for the Fit 4 Life gym in the shopping center next door which is an excellent facility.  They do not mention these guest passes to you at checkin though and I only found out through a coworker after being there for a few days.More</t>
   </si>
   <si>
+    <t>Nancy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r162195606-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1894,6 +2110,9 @@
     <t>Really nice place! Son had fun playing with the putting holes and indoor pool/hot tub. They have a putter and balls you can use. Nice outside area to hang out if you like. Close to many eating places and shopping. From the map it looks to be off the interstate some but it is not. Just have to go around because of the one way road in front of it. Close to the Dallas Skeet &amp; Trap range we went to for the 4H event. Price line gave us a great rate for 2 nights paid in advance.More</t>
   </si>
   <si>
+    <t>MidTMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r162058309-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2137,9 @@
     <t>I really enjoyed my stay at the hotel. The staff was very friendly and the rooms were very comfortable.  I enjoyed the breakfast.  However, I was disappointed that the hotel does not give upgrades on rooms for Platinum members and they don't give breakfast for us either.  Both of these things would prohibit me from staying there in the future. However, if those things are not important to someone, the place was great.  The rooms were very large and comfortable.  The speed of the Internet was fast.  The hotel is very convenient to the airport and to the Interstate.More</t>
   </si>
   <si>
+    <t>htowntravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r160355568-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1945,6 +2167,9 @@
     <t>Pleasant experience....really impressed by the decor and location. It overlooks the highway on the northside of the hotel. Modern design and great staff. Feels like a resort even though it is part of a hotel chain. Easily accessible from the highways. Quiet location.More</t>
   </si>
   <si>
+    <t>Senthilnatha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r159218479-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1972,6 +2197,9 @@
     <t>This hotel never ceases to impress us. We have stayed here once or twice a year for the past five years, and it is always clean, very well maintained, like new. It is clearly very well managed. The staff is always genuinely friendly and helpful, accommodating of any special request.The rooms are very large and impeccably clean.Though it's not in the most central location, being in the southwest corner of Fort Worth, we would never think of staying anywhere else in Fort Worth.More</t>
   </si>
   <si>
+    <t>knbn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r158985678-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1996,6 +2224,9 @@
     <t>Large, clean rooms.  Comfortable beds. Pleasant courtyard patio area. Would recommend.  Spent two nights here in april2013. Close to restaurants and shopping. Bar and restaurant in lobby with limited selections. Service slow as only ne person working.  Try fox and hounds bar in nearby shopping center for good bar foodMore</t>
   </si>
   <si>
+    <t>Joetfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r158163902-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2020,6 +2251,9 @@
     <t>I would rate this one of the best hotel values ever. We had a large group stay here for a wedding in the area and all our party gave rave reviews of the hotel. We enjoyed the clean, modern and well appointed room and the friendly staff and nice amenities. We would recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>BucketlistM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r145189526-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2047,6 +2281,9 @@
     <t>Great staff and amenities. Very windy outside and air conditioning units make loud whistling noise that kept us up all night. Spoiled an otherwise good experience. Room was very large with nice decor. Outside putting green and indoor pool ok, and gym was adequate. Just wish they had better construction to prevent all this wind noise as the hotel sits on the interstate in a wind tunnel. More</t>
   </si>
   <si>
+    <t>Sarah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r143400423-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2065,6 +2302,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>sassybonnets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r141959147-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2081,6 +2321,9 @@
   </si>
   <si>
     <t>My elderly mother and I stayed for 2 nights on the 3rd floor. It's a beautiful, clean hotel as has been my experience with most Marriott Courtyards. We especially liked the staff.  They were very personable and made us feel like friends. We left the Do Not Disturb sign out &amp; they gave us a call later in the day to make sure we didn't want our room cleaned and to see if we needed anything. We requested extra washcloths, and they were brought up immediately. We had a little trouble figuring out the air conditioning controls &amp; they came to the room to show us. Great service! We didn't eat there since we were meeting family elsewhere, but the eating area looked very inviting.  There was also an amply stocked snack bar. The rooms are large with great, comfortable beds with assorted pillow types. This hotel is situated on a hill above a freeway and behind a shopping area so it seemed we were away from the hustle and bustle since our room was on the back side yet we were close to anything we needed. I would highly recommend it.  Got a great deal when we "named our own price" on a travel site.More</t>
+  </si>
+  <si>
+    <t>Deborah1150</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r140913718-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
@@ -2108,6 +2351,9 @@
 If you have a few days and want to see some of Fort...We were without air-conditioning in our home for several days in the midst of two weeks of 100 degree plus temperatures. Luckily, we had Marriot points to spend and were able to move into a hotel.  We tried three different local Marriot properties.  This was by far the best.  The room was large, clean and comfortable, appointed with the business traveler in mind, but also perfect for someone looking for all the comforts of home (air-conditioning, coffee pot, refrigerator, and fast, free WiFi.)   The public spaces are comfortably furnished.  There are ample areas for recharging yourself or your computer.  Say goodbye to looking behind and underneath the furniture for a place to plug in your laptop.  There are work stations in the lobby, handy if you have already checked out but are not quite ready to leave, or perhaps for the night-owl whose roommate is already asleep. The property is in Southwest Fort Worth.  There are no tourist attractions here, unless you are a retail tourist (shopping options include  Macy's, Dillard's, Sears, Target, Academy Sports, to name a few), but if you are driving through Texas on Interstate 20, this is an excellent stopping point.  There are several decent enough chain restaurants nearby, along with a full service grocery store if you want to fill up your cooler for the next leg of your trip through Texas.If you have a few days and want to see some of Fort Worth, the downtown area, the cultural district and the stockyards are all an easy 20 minute drive.  Easy is not a relative term.  Fort Worth is not Dallas or LA.  Driving  in Fort Worth really is easy if you avoid I-35 and SH 183 during rush hour.  If you are considering this hotel, you are driving.  Public transportation is not a practical option.  There is a major freeway construction project in the area (which will be fascinating to little boys of all ages, and even to some girls!) but access to and from the hotel remains largely unobstructed.There is plenty of parking, much of it free,  near all of Fort Worth's major attractions.  If you need a place to jog or ride your bike, access to the Trinity River hike/bike trail is nearby.  It is not within walking distance, but it is close and there is free parking at the trail head.  We are local, and, barring loss of heat/AC in our home would probably not have occasion to stay here again.  But, we would definitely recommend it to friends and family and will seek out similar Marriot properties when we travel.More</t>
   </si>
   <si>
+    <t>Jackcatscal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r139201272-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2138,6 +2384,9 @@
     <t xml:space="preserve">Great service and lobby area. Rooms are new and well done. Staff is very helpful and friendly. Breakfast was great, only complaint is that it is not included in rate. Pool, and gym are ok, pool is indoor so on hot days it's not very refreshing. </t>
   </si>
   <si>
+    <t>Bill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r131008036-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2156,6 +2405,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Kathleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r130889328-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2174,6 +2426,9 @@
     <t>Wonderful hotel, Exactly what we needed while in town to help with our daughter's move to Fort Worth.  Nearly new, perfectly spotless and the comfortable beds which we've come to expect from Courtyard.  Room was modern but comfy with a larger bathroom than other hotels in this price range.  Granite countertops and curved shower curtain for extra room (don't you just hate when a hotel shower curtain touches you?).  We had the bistro breakfast which was quick and delicious even if a tad pricey (about $18 for two) but it was like having a limited panera bread menu right in the lobby so we were happy to it handy.  They offered a small assortment of Starbuck's coffee options and other free premium right in the lobby near by.  Though we didn't use it, there was a large putting green, very well landscaped patio and grilling area right out back with lots of privacy.  The area is new and there is limited road construction nearby but we never heard a sound and there are eating optioins like Pei Wei, etc within a block or two of the hotel.  The staff was always friendly and professional...  We will definitely stay there again when back in Fort Worth.More</t>
   </si>
   <si>
+    <t>JBretteD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r130288286-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2444,9 @@
     <t>This hotel delivered exactly what I expect from a Courtyard.  Nice workout room, very clean, and a large outside area.  Everything was good down to the arrival gift (a few chocolates) in the room for being a Platinum member.  If a runner, ample safe streets and sidewalks in the area to get in a nice run.  Will put this property on my list when in the area again.</t>
   </si>
   <si>
+    <t>kskrillz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r130004302-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2207,6 +2465,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>peggydill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r129552753-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2222,6 +2483,9 @@
     <t>This is my second stay at this hotel. Newer, CLEAN, modern hotel convenient to I-20. Check-in quick &amp; easy. Lots of restaurants, shopping nearby.  Nice indoor pool and outdoor area with firepit, fountain, putting green, outdoor TV and lounging areas. Large indoor public areas, local information screen in lobby. Had a large suite with very comfortable king bed and large sitting area, microwave, mini-refrigerator, coffee maker. Two large flat screen TVs, plenty of storage, a large desk/work area with free WiFi. Nice amenities in bath, plenty of water pressure. Despite several high school sports teams staying in the hotel, my room was quiet. Breakfast was not included, but was very reasonable. Starbucks coffee available. Plenty of parking with easy access to major roads. Would stay again.More</t>
   </si>
   <si>
+    <t>ABRESWINT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r126702842-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2243,6 +2507,9 @@
     <t>New, very modern, and super clean.  All ammenities were great.  Outside areas was amazing.  Putting green, outside TV, grill, couches, etc.  Inside had great area for playing games or doing business.  Indoor pool was spacious and clean.  I wish we had more time at the hotel!  Major let down was that breakfast was not included.  You could order from the cafe but you had to pay.  With two small kids an included breakfast of any kind is essential.  Too much of a hassel to get everyone up and dressed just to go grab breakfast somewhere.  That is my only complaint.  This hotel is so close to EVeRYTHING.  Would love to stay here again.More</t>
   </si>
   <si>
+    <t>achristie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r125051329-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2261,6 +2528,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>tcm_crew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r124598330-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2549,9 @@
     <t>This Courtyard is pretty new construction and is very up-to-date.  They have a wide selection of available snacks for purchase, a nice breakfast area serving evening faire as well.  Even though I booked the room on my credit card points, somehow my reservation was still matched up with my Gold Marriott Rewards status, and was thanked at check-in for staying with Marriott hotels on a frequent basis (nice touch). Nice LG flatscreen TVs in the rooms, although most channels were analog rather than digital.  The free "highspeed" internet could seriously use improvement - it's slow to the point of borderline useless at time.  It seems to "take naps" and go totally non-responsive, and then it will start working again.  I had to access my email through the web email application rather than Outlook.  I stay in this area very frequently, booking rooms through a couple of popular on-line booking sites, and have seen a very noticeable increase in vandalism and burglary of cars in the hotel parking lots in the City View area, so be sure to try parking near the front doors of the hotel, or at least in an area with security camera coverage.More</t>
   </si>
   <si>
+    <t>BigWindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r119164730-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2318,6 +2591,9 @@
     <t>I live locally and on Thursday night, a large electrical storm created an Internet outage in my neighborhood.  Friday morning I was scheduled to take an important final exam to complete some employer-provided training. I phoned the Courtyard and found they had rooms available.  They allowed me an early check-in so that I could be in one of their rooms and on their Internet for my 11:30 a.m. final test.  The hotel is only 2 or 3 years old and is beautiful inside.  They offer free coffee plus sell brewed Starbucks coffee in their lobby coffee/breakfast bar.  And although the employer-provided training takes alot of bandwidth because it included vocal instruction and audio for all students, the hotel's Internet bandwidth was up to the task.  Had this hotel not accommodated my needs, I would have had to re-take the entire training class (my employer is rigid).  Thank you, Courtyard Cityview!More</t>
   </si>
   <si>
+    <t>johntimothyhopkins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r116897247-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2336,6 +2612,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>baillie10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r116803869-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2375,6 +2654,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>TinkaS16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r115228706-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2396,6 +2678,9 @@
     <t>This Courtyard is a great location and provided us with a great overnight stay! We stopped here after spending a day at the Fort Worth Stockyards and in preparation of our next stop at the Fort Worth Zoo.We had a great night sleep in the comfortable, spacious and clean room.The service was very good and I really enjoyed being the "Guest of the Day"!  What a fun suprise that was! The pool area was nice and my boys enjoyed it very much! We like the location due to its proximity to the Stockyards and to the Zoo. I highly recommend this hotel if you are spending some time in the Fort Worth Area!More</t>
   </si>
   <si>
+    <t>Rickeybob22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r58118900-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2414,6 +2699,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>Jadiensmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r56738120-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2430,6 +2718,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>travelingbarb2-2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1382903-r52564178-Courtyard_Fort_Worth_West_at_Cityview-Fort_Worth_Texas.html</t>
@@ -2955,43 +3246,47 @@
       <c r="A2" t="n">
         <v>57402</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127569</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3009,56 +3304,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57402</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>39593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3070,56 +3369,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57402</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127570</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3135,56 +3438,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57402</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3196,56 +3503,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57402</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127572</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3257,56 +3568,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57402</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3318,47 +3633,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57402</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127573</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -3375,56 +3694,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57402</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3436,56 +3759,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57402</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127574</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3503,56 +3830,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57402</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127575</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3564,47 +3895,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57402</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -3621,56 +3956,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57402</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3682,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57402</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3743,56 +4086,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57402</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>157</v>
       </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>145</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3810,56 +4157,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57402</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127579</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3875,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57402</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>10713</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3942,56 +4297,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57402</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127580</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4003,56 +4362,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57402</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127581</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4070,56 +4433,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57402</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4131,56 +4498,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57402</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4198,56 +4569,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57402</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>6272</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4263,56 +4638,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57402</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127584</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4324,56 +4703,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57402</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127585</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4391,56 +4774,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57402</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127586</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4458,56 +4845,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57402</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127587</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4519,56 +4910,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57402</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127588</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>261</v>
       </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>238</v>
-      </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4584,38 +4979,42 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57402</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127589</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J28" t="s"/>
       <c r="K28" t="s"/>
@@ -4632,51 +5031,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57402</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127590</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4694,56 +5094,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="X29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57402</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127591</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4761,56 +5165,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57402</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127592</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4826,56 +5234,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57402</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127593</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4887,56 +5299,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57402</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127594</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4948,56 +5364,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57402</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>127595</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5015,56 +5435,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57402</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127596</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5076,56 +5500,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57402</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127597</v>
+      </c>
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5137,56 +5565,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57402</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>39696</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="O37" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5198,56 +5630,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X37" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57402</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>33865</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5263,56 +5699,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57402</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127598</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5330,56 +5770,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X39" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57402</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127599</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5395,56 +5839,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X40" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57402</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127600</v>
+      </c>
+      <c r="C41" t="s">
+        <v>397</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="J41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="L41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O41" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5462,56 +5910,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="X41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57402</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127601</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="J42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5527,56 +5979,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X42" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57402</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127602</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5590,50 +6046,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57402</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127603</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5653,50 +6113,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57402</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>58538</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5710,50 +6174,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57402</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127604</v>
+      </c>
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5765,56 +6233,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="X46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57402</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>127605</v>
+      </c>
+      <c r="C47" t="s">
+        <v>442</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="J47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5832,50 +6304,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57402</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>8015</v>
+      </c>
+      <c r="C48" t="s">
+        <v>448</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="J48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="L48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5893,50 +6369,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57402</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>8055</v>
+      </c>
+      <c r="C49" t="s">
+        <v>456</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5954,50 +6434,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57402</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>127606</v>
+      </c>
+      <c r="C50" t="s">
+        <v>462</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6013,56 +6497,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="X50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="Y50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57402</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>472</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="J51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="K51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6076,50 +6564,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57402</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>19460</v>
+      </c>
+      <c r="C52" t="s">
+        <v>479</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="J52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6139,41 +6631,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57402</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C53" t="s">
+        <v>488</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="J53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="K53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="L53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -6200,56 +6696,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="X53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="Y53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57402</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>127607</v>
+      </c>
+      <c r="C54" t="s">
+        <v>497</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="J54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="K54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="L54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="O54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6269,50 +6769,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57402</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127608</v>
+      </c>
+      <c r="C55" t="s">
+        <v>504</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="J55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="L55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6332,50 +6836,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57402</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>14423</v>
+      </c>
+      <c r="C56" t="s">
+        <v>511</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="J56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="K56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="L56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="O56" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6395,7 +6903,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
@@ -6408,37 +6916,37 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="J57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6454,56 +6962,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="X57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57402</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>127609</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="J58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="K58" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="L58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O58" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6523,56 +7035,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="X58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="Y58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57402</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>127610</v>
+      </c>
+      <c r="C59" t="s">
+        <v>536</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6594,56 +7110,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="X59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57402</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>127611</v>
+      </c>
+      <c r="C60" t="s">
+        <v>546</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6665,56 +7185,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="X60" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="Y60" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57402</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>127612</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6736,13 +7260,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="X61" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="Y61" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62">
@@ -6755,37 +7279,37 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6807,56 +7331,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="X62" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="Y62" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57402</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>127613</v>
+      </c>
+      <c r="C63" t="s">
+        <v>574</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="J63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="L63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6878,56 +7406,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="X63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="Y63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57402</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>17859</v>
+      </c>
+      <c r="C64" t="s">
+        <v>583</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6949,56 +7481,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="X64" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="Y64" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57402</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>87619</v>
+      </c>
+      <c r="C65" t="s">
+        <v>592</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="J65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="K65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="L65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7020,56 +7556,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="X65" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57402</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>127614</v>
+      </c>
+      <c r="C66" t="s">
+        <v>602</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="K66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="L66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -7091,47 +7631,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="X66" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="Y66" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57402</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>80831</v>
+      </c>
+      <c r="C67" t="s">
+        <v>609</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="J67" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="K67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -7158,47 +7702,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="X67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="Y67" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57402</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>127615</v>
+      </c>
+      <c r="C68" t="s">
+        <v>618</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="J68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="K68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="L68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -7225,56 +7773,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="X68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="Y68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57402</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>80165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>627</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="J69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="K69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="L69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7296,56 +7848,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="X69" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="Y69" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57402</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>127616</v>
+      </c>
+      <c r="C70" t="s">
+        <v>637</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="J70" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="K70" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="L70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7367,56 +7923,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="X70" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="Y70" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57402</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>127617</v>
+      </c>
+      <c r="C71" t="s">
+        <v>646</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="J71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="K71" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="L71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7438,56 +7998,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="X71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="Y71" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57402</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>127618</v>
+      </c>
+      <c r="C72" t="s">
+        <v>655</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="J72" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="K72" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="L72" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7499,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="X72" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="Y72" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73">
@@ -7518,28 +8082,28 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="J73" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="K73" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="L73" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7566,56 +8130,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="X73" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="Y73" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57402</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7637,56 +8205,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="X74" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="Y74" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57402</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>41399</v>
+      </c>
+      <c r="C75" t="s">
+        <v>679</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="J75" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="K75" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="L75" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7708,56 +8280,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="X75" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="Y75" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57402</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>9683</v>
+      </c>
+      <c r="C76" t="s">
+        <v>686</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="J76" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="K76" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="L76" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7779,56 +8355,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="X76" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="Y76" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57402</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>127619</v>
+      </c>
+      <c r="C77" t="s">
+        <v>696</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="J77" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="K77" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="L77" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="O77" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7850,56 +8430,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="X77" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="Y77" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57402</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>127620</v>
+      </c>
+      <c r="C78" t="s">
+        <v>705</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="J78" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="K78" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="L78" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="O78" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7921,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="X78" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="Y78" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57402</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>127621</v>
+      </c>
+      <c r="C79" t="s">
+        <v>715</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="J79" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="K79" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="L79" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="O79" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7992,47 +8580,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="X79" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="Y79" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57402</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>127622</v>
+      </c>
+      <c r="C80" t="s">
+        <v>725</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="J80" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="K80" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="L80" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
@@ -8049,56 +8641,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="X80" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="Y80" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57402</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>127623</v>
+      </c>
+      <c r="C81" t="s">
+        <v>734</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="J81" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="K81" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="L81" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="O81" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8120,56 +8716,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="X81" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="Y81" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57402</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>127624</v>
+      </c>
+      <c r="C82" t="s">
+        <v>743</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="J82" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="K82" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="L82" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8181,56 +8781,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="X82" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="Y82" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57402</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>16153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>753</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="J83" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="K83" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="L83" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8254,50 +8858,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57402</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>127625</v>
+      </c>
+      <c r="C84" t="s">
+        <v>760</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="J84" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="K84" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="L84" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8321,50 +8929,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57402</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127626</v>
+      </c>
+      <c r="C85" t="s">
+        <v>767</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="J85" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="K85" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="L85" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="O85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8388,50 +9000,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57402</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C86" t="s">
+        <v>775</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="J86" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="K86" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="L86" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="O86" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8445,41 +9061,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57402</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>127623</v>
+      </c>
+      <c r="C87" t="s">
+        <v>743</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="J87" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="K87" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="L87" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8508,50 +9128,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57402</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>16664</v>
+      </c>
+      <c r="C88" t="s">
+        <v>786</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="J88" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="K88" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="L88" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="O88" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8575,50 +9199,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57402</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>4541</v>
+      </c>
+      <c r="C89" t="s">
+        <v>793</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="J89" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="K89" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="L89" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="O89" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8642,50 +9270,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57402</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>127628</v>
+      </c>
+      <c r="C90" t="s">
+        <v>800</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="J90" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="K90" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="L90" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="O90" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="n">
@@ -8703,50 +9335,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57402</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>87665</v>
+      </c>
+      <c r="C91" t="s">
+        <v>806</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="J91" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="K91" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="L91" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8770,50 +9406,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57402</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>57531</v>
+      </c>
+      <c r="C92" t="s">
+        <v>813</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
       <c r="J92" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="K92" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L92" t="s">
-        <v>730</v>
+        <v>817</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="O92" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8837,50 +9477,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57402</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>127629</v>
+      </c>
+      <c r="C93" t="s">
+        <v>819</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="J93" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="K93" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
       <c r="L93" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8904,50 +9548,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57402</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>127630</v>
+      </c>
+      <c r="C94" t="s">
+        <v>827</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="J94" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="K94" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="L94" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8971,50 +9619,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57402</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>124365</v>
+      </c>
+      <c r="C95" t="s">
+        <v>834</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
       <c r="J95" t="s">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="K95" t="s">
-        <v>748</v>
+        <v>838</v>
       </c>
       <c r="L95" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="O95" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9038,50 +9690,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57402</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C96" t="s">
+        <v>841</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
       <c r="J96" t="s">
-        <v>753</v>
+        <v>844</v>
       </c>
       <c r="K96" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
       <c r="L96" t="s">
-        <v>755</v>
+        <v>846</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>756</v>
+        <v>847</v>
       </c>
       <c r="O96" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9105,7 +9761,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>757</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97">
@@ -9118,37 +9774,37 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="J97" t="s">
-        <v>760</v>
+        <v>851</v>
       </c>
       <c r="K97" t="s">
-        <v>761</v>
+        <v>852</v>
       </c>
       <c r="L97" t="s">
-        <v>762</v>
+        <v>853</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>756</v>
+        <v>847</v>
       </c>
       <c r="O97" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9172,50 +9828,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57402</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>127632</v>
+      </c>
+      <c r="C98" t="s">
+        <v>855</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>764</v>
+        <v>856</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="J98" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="K98" t="s">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="L98" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>769</v>
+        <v>861</v>
       </c>
       <c r="O98" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9235,50 +9895,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57402</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>127633</v>
+      </c>
+      <c r="C99" t="s">
+        <v>862</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="J99" t="s">
-        <v>772</v>
+        <v>865</v>
       </c>
       <c r="K99" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="L99" t="s">
-        <v>774</v>
+        <v>867</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>775</v>
+        <v>868</v>
       </c>
       <c r="O99" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9298,7 +9962,7 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100">
@@ -9311,37 +9975,37 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="J100" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="K100" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="L100" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="O100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9355,50 +10019,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57402</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>127634</v>
+      </c>
+      <c r="C101" t="s">
+        <v>876</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>783</v>
+        <v>877</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="J101" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="K101" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="L101" t="s">
-        <v>787</v>
+        <v>881</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9418,50 +10086,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57402</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>127635</v>
+      </c>
+      <c r="C102" t="s">
+        <v>884</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>790</v>
+        <v>885</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>791</v>
+        <v>886</v>
       </c>
       <c r="J102" t="s">
-        <v>792</v>
+        <v>887</v>
       </c>
       <c r="K102" t="s">
-        <v>793</v>
+        <v>888</v>
       </c>
       <c r="L102" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="O102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9485,50 +10157,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>57402</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>127636</v>
+      </c>
+      <c r="C103" t="s">
+        <v>891</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>796</v>
+        <v>892</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>797</v>
+        <v>893</v>
       </c>
       <c r="J103" t="s">
-        <v>798</v>
+        <v>894</v>
       </c>
       <c r="K103" t="s">
-        <v>799</v>
+        <v>895</v>
       </c>
       <c r="L103" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="O103" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9552,50 +10228,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>57402</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>127637</v>
+      </c>
+      <c r="C104" t="s">
+        <v>898</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>802</v>
+        <v>899</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>803</v>
+        <v>900</v>
       </c>
       <c r="J104" t="s">
-        <v>804</v>
+        <v>901</v>
       </c>
       <c r="K104" t="s">
-        <v>805</v>
+        <v>902</v>
       </c>
       <c r="L104" t="s">
-        <v>806</v>
+        <v>903</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>807</v>
+        <v>904</v>
       </c>
       <c r="O104" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9619,7 +10299,7 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>808</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
